--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7800" activeTab="1"/>
+    <workbookView windowWidth="19635" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="kursi" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="63">
   <si>
     <t>provinsi</t>
   </si>
   <si>
-    <t>kursi</t>
+    <t>dpr</t>
+  </si>
+  <si>
+    <t>dpd</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>aceh</t>
@@ -1203,327 +1209,599 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <f>B2+C2</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D39" si="0">B3+C3</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1540,7 +1818,7 @@
   <sheetPr/>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
@@ -1558,18 +1836,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1859259</v>
@@ -1583,7 +1861,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>50584</v>
@@ -1597,7 +1875,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>1858836</v>
@@ -1611,7 +1889,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>217439</v>
@@ -1625,7 +1903,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>385533</v>
@@ -1639,7 +1917,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>1918497</v>
@@ -1653,7 +1931,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>198219</v>
@@ -1667,7 +1945,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>431510</v>
@@ -1681,7 +1959,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>6818588</v>
@@ -1695,7 +1973,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>2585333</v>
@@ -1709,7 +1987,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>3354742</v>
@@ -1723,7 +2001,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>596637</v>
@@ -1737,7 +2015,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B14">
         <v>604694</v>
@@ -1751,7 +2029,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15">
         <v>201082</v>
@@ -1765,7 +2043,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B16">
         <v>305970</v>
@@ -1779,7 +2057,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <v>60400</v>
@@ -1793,7 +2071,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>172523</v>
@@ -1807,7 +2085,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>225401</v>
@@ -1821,7 +2099,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>727297</v>
@@ -1835,7 +2113,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B21">
         <v>114652</v>
@@ -1849,7 +2127,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>122626</v>
@@ -1863,7 +2141,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>688093</v>
@@ -1877,7 +2155,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>108043</v>
@@ -1891,7 +2169,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B25">
         <v>20289</v>
@@ -1905,7 +2183,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>9684</v>
@@ -1919,7 +2197,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B27">
         <v>20750</v>
@@ -1933,7 +2211,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B28">
         <v>145</v>
@@ -1947,7 +2225,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B29">
         <v>6167</v>
@@ -1961,7 +2239,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B30">
         <v>6312</v>
@@ -1975,7 +2253,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B31">
         <v>977839</v>
@@ -1989,7 +2267,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B32">
         <v>206371</v>
@@ -2003,7 +2281,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B33">
         <v>1613417</v>
@@ -2017,7 +2295,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B34">
         <v>311145</v>
@@ -2031,7 +2309,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B35">
         <v>307760</v>
@@ -2045,7 +2323,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>111622</v>
@@ -2059,7 +2337,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>1514470</v>
@@ -2073,7 +2351,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B38">
         <v>816248</v>
@@ -2087,7 +2365,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B39">
         <v>1440405</v>
